--- a/temp_doc/PESERTA UJIAN MOODLE PPG.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE PPG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486380BF-E688-FD45-B72F-72F0B915EC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6BFB55-F7D3-8C41-95A3-3CCF76BD80CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
   <si>
     <t>username</t>
   </si>
@@ -95,151 +95,76 @@
     <t>DIAH SINTIA</t>
   </si>
   <si>
-    <t>PPG001</t>
-  </si>
-  <si>
     <t>USER001</t>
-  </si>
-  <si>
-    <t>PPG002</t>
   </si>
   <si>
     <t>USER002</t>
   </si>
   <si>
-    <t>PPG003</t>
-  </si>
-  <si>
     <t>USER003</t>
-  </si>
-  <si>
-    <t>PPG004</t>
   </si>
   <si>
     <t>USER004</t>
   </si>
   <si>
-    <t>PPG005</t>
-  </si>
-  <si>
     <t>USER005</t>
-  </si>
-  <si>
-    <t>PPG006</t>
   </si>
   <si>
     <t>USER006</t>
   </si>
   <si>
-    <t>PPG007</t>
-  </si>
-  <si>
     <t>USER007</t>
-  </si>
-  <si>
-    <t>PPG008</t>
   </si>
   <si>
     <t>USER008</t>
   </si>
   <si>
-    <t>PPG009</t>
-  </si>
-  <si>
     <t>USER009</t>
-  </si>
-  <si>
-    <t>PPG010</t>
   </si>
   <si>
     <t>USER010</t>
   </si>
   <si>
-    <t>PPG011</t>
-  </si>
-  <si>
     <t>USER011</t>
-  </si>
-  <si>
-    <t>PPG012</t>
   </si>
   <si>
     <t>USER012</t>
   </si>
   <si>
-    <t>PPG013</t>
-  </si>
-  <si>
     <t>USER013</t>
-  </si>
-  <si>
-    <t>PPG014</t>
   </si>
   <si>
     <t>USER014</t>
   </si>
   <si>
-    <t>PPG015</t>
-  </si>
-  <si>
     <t>USER015</t>
-  </si>
-  <si>
-    <t>PPG016</t>
   </si>
   <si>
     <t>USER016</t>
   </si>
   <si>
-    <t>PPG017</t>
-  </si>
-  <si>
     <t>USER017</t>
-  </si>
-  <si>
-    <t>PPG018</t>
   </si>
   <si>
     <t>USER018</t>
   </si>
   <si>
-    <t>PPG019</t>
-  </si>
-  <si>
     <t>USER019</t>
-  </si>
-  <si>
-    <t>PPG020</t>
   </si>
   <si>
     <t>USER020</t>
   </si>
   <si>
-    <t>PPG021</t>
-  </si>
-  <si>
     <t>USER021</t>
-  </si>
-  <si>
-    <t>PPG022</t>
   </si>
   <si>
     <t>USER022</t>
   </si>
   <si>
-    <t>PPG023</t>
-  </si>
-  <si>
     <t>USER023</t>
   </si>
   <si>
-    <t>PPG024</t>
-  </si>
-  <si>
     <t>USER024</t>
-  </si>
-  <si>
-    <t>PPG025</t>
   </si>
   <si>
     <t>USER025</t>
@@ -278,17 +203,92 @@
     <t>SHERIL ARDIKA A.</t>
   </si>
   <si>
-    <t>XI TJKT 1 PPG</t>
+    <t xml:space="preserve"> (XI TJKT 1)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (XI TJKT 1 PPG)</t>
+    <t>XI TJKT 1</t>
+  </si>
+  <si>
+    <t>PASS001</t>
+  </si>
+  <si>
+    <t>PASS002</t>
+  </si>
+  <si>
+    <t>PASS003</t>
+  </si>
+  <si>
+    <t>PASS004</t>
+  </si>
+  <si>
+    <t>PASS005</t>
+  </si>
+  <si>
+    <t>PASS006</t>
+  </si>
+  <si>
+    <t>PASS007</t>
+  </si>
+  <si>
+    <t>PASS008</t>
+  </si>
+  <si>
+    <t>PASS009</t>
+  </si>
+  <si>
+    <t>PASS010</t>
+  </si>
+  <si>
+    <t>PASS011</t>
+  </si>
+  <si>
+    <t>PASS012</t>
+  </si>
+  <si>
+    <t>PASS013</t>
+  </si>
+  <si>
+    <t>PASS014</t>
+  </si>
+  <si>
+    <t>PASS015</t>
+  </si>
+  <si>
+    <t>PASS016</t>
+  </si>
+  <si>
+    <t>PASS017</t>
+  </si>
+  <si>
+    <t>PASS018</t>
+  </si>
+  <si>
+    <t>PASS019</t>
+  </si>
+  <si>
+    <t>PASS020</t>
+  </si>
+  <si>
+    <t>PASS021</t>
+  </si>
+  <si>
+    <t>PASS022</t>
+  </si>
+  <si>
+    <t>PASS023</t>
+  </si>
+  <si>
+    <t>PASS024</t>
+  </si>
+  <si>
+    <t>PASS025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -428,6 +428,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1132,7 +1138,7 @@
   <dimension ref="A1:F1045"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F25"/>
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1170,523 +1176,525 @@
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>CONCATENATE(A2,"@gmail.com")</f>
-        <v>PPG001@gmail.com</v>
+        <v>USER001@gmail.com</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="str">
         <f t="shared" ref="E3:E26" si="0">CONCATENATE(A3,"@gmail.com")</f>
-        <v>PPG002@gmail.com</v>
+        <v>USER002@gmail.com</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG003@gmail.com</v>
+        <v>USER003@gmail.com</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG004@gmail.com</v>
+        <v>USER004@gmail.com</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG005@gmail.com</v>
+        <v>USER005@gmail.com</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG006@gmail.com</v>
+        <v>USER006@gmail.com</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG007@gmail.com</v>
+        <v>USER007@gmail.com</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG008@gmail.com</v>
+        <v>USER008@gmail.com</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG009@gmail.com</v>
+        <v>USER009@gmail.com</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG010@gmail.com</v>
+        <v>USER010@gmail.com</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG011@gmail.com</v>
+        <v>USER011@gmail.com</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG012@gmail.com</v>
+        <v>USER012@gmail.com</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG013@gmail.com</v>
+        <v>USER013@gmail.com</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG014@gmail.com</v>
+        <v>USER014@gmail.com</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG015@gmail.com</v>
+        <v>USER015@gmail.com</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG016@gmail.com</v>
+        <v>USER016@gmail.com</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG017@gmail.com</v>
+        <v>USER017@gmail.com</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG018@gmail.com</v>
+        <v>USER018@gmail.com</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG019@gmail.com</v>
+        <v>USER019@gmail.com</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG020@gmail.com</v>
+        <v>USER020@gmail.com</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG021@gmail.com</v>
+        <v>USER021@gmail.com</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG022@gmail.com</v>
+        <v>USER022@gmail.com</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG023@gmail.com</v>
+        <v>USER023@gmail.com</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG024@gmail.com</v>
+        <v>USER024@gmail.com</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PPG025@gmail.com</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>USER025@gmail.com</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -8822,6 +8830,7 @@
       <c r="F1045" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>